--- a/LedigDato.xlsx
+++ b/LedigDato.xlsx
@@ -1,35 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <i val="1"/>
-      <color rgb="FF2D3B45"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,10 +45,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -133,7 +124,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -149,7 +140,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -161,7 +152,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -208,23 +199,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -260,23 +234,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -433,394 +390,279 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="17" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="23.21875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="13.6640625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="13.6640625" customWidth="1" min="4" max="4"/>
-    <col width="18.88671875" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="12.21875" bestFit="1" customWidth="1" min="6" max="6"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>de elendige: dato</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>de elendige: tid</t>
+          <t>de elendige</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Gull</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>vildanden: dato</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>vildanden: tid</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>vildanden: sal</t>
+          <t>vildanden</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>45323</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>139</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>45323</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>150</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1.2.2024</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>45324</v>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>45324</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2.2.2024</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>150</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2.2.2024</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>45325</v>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>45325</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3.2.2024</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>137</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3.2.2024</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>45326</v>
-      </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="C5" s="2" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4.2.2024</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="1" t="n"/>
-      <c r="F5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4.2.2024</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>45327</v>
-      </c>
-      <c r="B6" s="2" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>45327</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5.2.2024</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>150</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5.2.2024</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>45328</v>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>45328</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6.2.2024</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>150</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>6.2.2024</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>45329</v>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>45329</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7.2.2024</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>150</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7.2.2024</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>45330</v>
-      </c>
-      <c r="B9" s="2" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>45330</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8.2.2024</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>150</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8.2.2024</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>45331</v>
-      </c>
-      <c r="B10" s="2" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>45331</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9.2.2024</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>150</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>9.2.2024</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>45332</v>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>45332</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10.2.2024</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>150</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10.2.2024</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>45333</v>
-      </c>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11.2.2024</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="1" t="n"/>
-      <c r="F12" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>11.2.2024</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>45334</v>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D13" s="1" t="n">
-        <v>45334</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12.2.2024</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>150</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12.2.2024</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>45335</v>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D14" s="1" t="n">
-        <v>45335</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>13.2.2024</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>150</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13.2.2024</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>45336</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>45337</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>150</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>45337</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14.2.2024</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>150</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14.2.2024</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/LedigDato.xlsx
+++ b/LedigDato.xlsx
@@ -1,28 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Ark1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <i val="1"/>
+      <color rgb="FF2D3B45"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -45,8 +52,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,7 +133,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -140,7 +149,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -152,7 +161,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -199,6 +208,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -234,6 +260,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -390,279 +433,670 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="17" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="23.21875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="13.6640625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="13.6640625" customWidth="1" min="4" max="4"/>
+    <col width="18.88671875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="12.21875" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="13" bestFit="1" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>de elendige</t>
+          <t>de elendige: dato</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>de elendige: tid</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>vildanden</t>
-        </is>
+          <t>Gull</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>vildanden: dato</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>vildanden: tid</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Sølv</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>smalltalk: dato</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>smalltalk: tid</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>bronse</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>profitt:</t>
+        </is>
+      </c>
+      <c r="K1" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1.2.2024</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>01.02.24</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>01.02.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>99</v>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>01.02.24</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>50</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>02.02.24</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>02.02.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>95</v>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>02.02.24</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>03.02.24</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1.2.2024</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>03.02.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>94</v>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>03.02.24</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>04.02.24</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>04.02.24</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>04.02.24</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>05.02.24</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>05.02.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2.2.2024</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>05.02.24</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>06.02.24</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2.2.2024</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>06.02.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3.2.2024</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>137</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3.2.2024</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>06.02.24</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>07.02.24</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>07.02.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4.2.2024</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>07.02.24</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>08.02.24</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>08.02.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>08.02.24</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>09.02.24</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>09.02.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>09.02.24</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>10.02.24</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>10.02.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>99</v>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10.02.24</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>11.02.24</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n"/>
+      <c r="C12" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>4.2.2024</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>11.02.24</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>5.2.2024</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11.02.24</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>12.02.24</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>12.02.24</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>99</v>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>12.02.24</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>13.02.24</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5.2.2024</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>13.02.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6.2.2024</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>13.02.24</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>14.02.24</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="C15" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>6.2.2024</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>14.02.24</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
         <v>100</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>7.2.2024</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>150</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>7.2.2024</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>8.2.2024</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>150</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>8.2.2024</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>9.2.2024</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>150</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>9.2.2024</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10.2.2024</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>150</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.2.2024</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11.2.2024</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>11.2.2024</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12.2.2024</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>150</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>12.2.2024</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>13.2.2024</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>150</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>13.2.2024</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>14.2.2024</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>150</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>14.2.2024</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>100</v>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>14.02.24</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>15.02.24</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>15.02.24</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>96</v>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>15.02.24</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/LedigDato.xlsx
+++ b/LedigDato.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder-my.sharepoint.com/personal/elev755251_elev_trondelagfylke_no/Documents/IT2/kapittel 2, Objektorientert programmering/2B Systemutvikling/Sprint 3.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tronder-my.sharepoint.com/personal/elev755251_elev_trondelagfylke_no/Documents/IT2/kapittel 2, Objektorientert programmering/2B Systemutvikling/Final draft/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_45F5FB889D155B658C225BE4E4A423247D6F1655" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0F96047-466D-4E0D-8A1B-C3CCD7A1192B}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_45F5FB889D155B658C225B5664FA7D6263031654" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BF1D4F7-7DE5-48D0-AA4E-6567DA06EF23}"/>
   <bookViews>
     <workbookView xWindow="348" yWindow="1008" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,6 +61,9 @@
     <t>19.00</t>
   </si>
   <si>
+    <t>nei</t>
+  </si>
+  <si>
     <t>02.02.24</t>
   </si>
   <si>
@@ -101,9 +104,6 @@
   </si>
   <si>
     <t>15.02.24</t>
-  </si>
-  <si>
-    <t>nei</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
@@ -545,7 +545,7 @@
         <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -562,7 +562,7 @@
         <v>150</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -571,7 +571,7 @@
         <v>100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -582,7 +582,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -591,7 +591,7 @@
         <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -600,7 +600,7 @@
         <v>100</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -611,20 +611,20 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -641,7 +641,7 @@
         <v>150</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>12</v>
@@ -650,7 +650,7 @@
         <v>100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
@@ -670,7 +670,7 @@
         <v>150</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -679,7 +679,7 @@
         <v>100</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -690,7 +690,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>12</v>
@@ -699,7 +699,7 @@
         <v>150</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -708,7 +708,7 @@
         <v>100</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
@@ -728,7 +728,7 @@
         <v>150</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -757,7 +757,7 @@
         <v>150</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -766,7 +766,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>12</v>
@@ -786,7 +786,7 @@
         <v>150</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
@@ -795,7 +795,7 @@
         <v>100</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -806,20 +806,20 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1">
         <v>0</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>12</v>
@@ -836,7 +836,7 @@
         <v>150</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -845,7 +845,7 @@
         <v>100</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
@@ -865,7 +865,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -874,7 +874,7 @@
         <v>100</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
@@ -885,7 +885,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
@@ -894,7 +894,7 @@
         <v>150</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -903,7 +903,7 @@
         <v>100</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>12</v>
@@ -923,7 +923,7 @@
         <v>150</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
         <v>12</v>
@@ -932,7 +932,7 @@
         <v>100</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
